--- a/datf_core/test/testprotocol/testselection.xlsx
+++ b/datf_core/test/testprotocol/testselection.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD7245-E0A7-4B42-9385-752AD17774AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocoltestcasedetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,13 +287,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -359,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,9 +408,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,534 +584,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
+      <c r="B31" t="s">
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
         <v>64</v>
       </c>
     </row>
